--- a/Container/Data/Artillerie.xlsx
+++ b/Container/Data/Artillerie.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4B0BE-211A-40D1-A3EA-8B027832F22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B8980-F2D2-465D-B606-89C78A43AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="None" sheetId="8" r:id="rId1"/>
     <sheet name="Skorpion" sheetId="1" r:id="rId2"/>
     <sheet name="Balliste" sheetId="3" r:id="rId3"/>
     <sheet name="Handkanone" sheetId="4" r:id="rId4"/>
-    <sheet name="Großkanone" sheetId="5" r:id="rId5"/>
-    <sheet name="Katapult" sheetId="6" r:id="rId6"/>
-    <sheet name="Trebouchet" sheetId="7" r:id="rId7"/>
+    <sheet name="SchrotGroßkanone" sheetId="9" r:id="rId5"/>
+    <sheet name="Großkanone" sheetId="5" r:id="rId6"/>
+    <sheet name="Katapult" sheetId="6" r:id="rId7"/>
+    <sheet name="Trebouchet" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +134,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Durchschlagung</t>
   </si>
 </sst>
 </file>
@@ -450,18 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9F4A66-70F2-46FF-8D09-1ED2FFAA960E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -475,7 +479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -497,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -508,7 +512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -519,7 +523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -527,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -535,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -543,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -551,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -559,12 +563,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -575,18 +587,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -600,7 +612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -625,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -639,7 +651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -653,7 +665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -661,7 +673,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -669,7 +681,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -677,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -685,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -693,12 +705,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -709,18 +729,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D585EA-0780-459D-A059-EFFC2A4601B7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -734,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -742,7 +762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -756,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -770,7 +790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -784,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -792,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -800,7 +820,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -808,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -816,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -824,12 +844,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -840,18 +868,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890EC00-9FE5-4974-A365-E050C74ACE17}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -865,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -873,7 +901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -887,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -901,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -915,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -923,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -931,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -939,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -947,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -955,12 +983,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -970,19 +1006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F611EB7-AED1-449D-B9B8-A52EA2F52CE0}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02250144-1F18-4735-9C53-10EEB398A32C}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1004,12 +1040,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1018,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1098,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1086,12 +1122,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1101,19 +1145,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E7459A-EB25-4C9A-B3B7-9362CC164418}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F611EB7-AED1-449D-B9B8-A52EA2F52CE0}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1127,23 +1171,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1152,12 +1193,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1166,12 +1207,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1180,7 +1221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1188,15 +1229,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1212,20 +1253,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1235,19 +1284,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EEFD8F-4097-4C09-BBBC-0A836A1DF514}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E7459A-EB25-4C9A-B3B7-9362CC164418}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1310,149 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>350</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EEFD8F-4097-4C09-BBBC-0A836A1DF514}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1521,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1354,12 +1545,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
